--- a/src/run_log.xlsx
+++ b/src/run_log.xlsx
@@ -497,21 +497,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>f3a1e5ea-05e4-4725-b710-a2e75bd0d6f9</t>
+          <t>044c6c85-3819-4eeb-a351-a1b98537dee6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-12 10:10:42</t>
+          <t>2025-09-12 15:56:18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tournament_raw</t>
+          <t>tournament_class_raw</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -520,24 +520,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.69375014305115</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>6.360591888427734</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Cutoff: 2025-08-01, Order: newest, Max tournaments: 10, Specific ext_ids: none</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/run_log.xlsx
+++ b/src/run_log.xlsx
@@ -497,36 +497,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>044c6c85-3819-4eeb-a351-a1b98537dee6</t>
+          <t>eec106b4-cd8d-467d-8721-ee40b34b9a5d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-12 15:56:18</t>
+          <t>2025-09-16 13:46:34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tournament_class_raw</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>scrape</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6644</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -535,13 +535,9 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.360591888427734</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Cutoff: 2025-08-01, Order: newest, Max tournaments: 10, Specific ext_ids: none</t>
-        </is>
-      </c>
+        <v>0.636676549911499</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/run_log.xlsx
+++ b/src/run_log.xlsx
@@ -497,16 +497,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eec106b4-cd8d-467d-8721-ee40b34b9a5d</t>
+          <t>e0d47975-ad52-44a0-a8c2-d0c6f981d5d1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-16 13:46:34</t>
+          <t>2025-09-16 16:12:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>69</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6644</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.636676549911499</v>
+        <v>38.05956625938416</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>

--- a/src/run_log.xlsx
+++ b/src/run_log.xlsx
@@ -497,16 +497,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>e0d47975-ad52-44a0-a8c2-d0c6f981d5d1</t>
+          <t>f9b3677b-7104-4ca0-9efa-b2420fbc23e8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-16 16:12:00</t>
+          <t>2025-09-17 10:24:29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -520,22 +520,22 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>156641</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>69</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>155857</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>38.05956625938416</v>
+        <v>7.312202453613281</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>

--- a/src/run_log.xlsx
+++ b/src/run_log.xlsx
@@ -497,45 +497,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>f9b3677b-7104-4ca0-9efa-b2420fbc23e8</t>
+          <t>fc0a6500-d16a-4cc3-8466-4aaa56142480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-17 10:24:29</t>
+          <t>2025-09-21 15:57:47</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>participant</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>scrape</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>156641</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>784</v>
-      </c>
       <c r="I2" t="n">
-        <v>155857</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.312202453613281</v>
+        <v>3.793283224105835</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>

--- a/src/run_log.xlsx
+++ b/src/run_log.xlsx
@@ -497,45 +497,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fc0a6500-d16a-4cc3-8466-4aaa56142480</t>
+          <t>f9b3677b-7104-4ca0-9efa-b2420fbc23e8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-21 15:57:47</t>
+          <t>2025-09-17 10:24:29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>participant</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>scrape</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>156641</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>155857</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.793283224105835</v>
+        <v>7.312202453613281</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>

--- a/src/run_log.xlsx
+++ b/src/run_log.xlsx
@@ -497,45 +497,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>f9b3677b-7104-4ca0-9efa-b2420fbc23e8</t>
+          <t>fdb89505-5496-48f8-8b1e-beb1dd748be3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-17 10:24:29</t>
+          <t>2025-09-25 11:16:10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>resolve</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>156641</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>784</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>155857</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>7.312202453613281</v>
+        <v>3.200638771057129</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>

--- a/src/run_log.xlsx
+++ b/src/run_log.xlsx
@@ -497,26 +497,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fdb89505-5496-48f8-8b1e-beb1dd748be3</t>
+          <t>ff58dfc9-319e-4c92-ac4d-e74252aed43f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-25 11:16:10</t>
+          <t>2025-10-03 13:16:56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>entry</t>
+          <t>tournament_class_match_raw</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>resolve</t>
+          <t>scrape</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -526,16 +526,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.200638771057129</v>
+        <v>0.07267498970031738</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
